--- a/data/pca/factorExposure/factorExposure_2018-08-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-08-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.03637758197028396</v>
+        <v>-0.02670164165107016</v>
       </c>
       <c r="C2">
-        <v>-0.03737963634406895</v>
+        <v>0.01666044633548774</v>
       </c>
       <c r="D2">
-        <v>-0.009866976505661059</v>
+        <v>-0.02185148924714796</v>
       </c>
       <c r="E2">
-        <v>0.05458481084249641</v>
+        <v>0.01580324113963326</v>
       </c>
       <c r="F2">
-        <v>0.1464784587832484</v>
+        <v>0.007793408665810735</v>
       </c>
       <c r="G2">
-        <v>-0.06357350124344704</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.08001468498974755</v>
+      </c>
+      <c r="H2">
+        <v>0.02738455485008048</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.1217302632442042</v>
+        <v>-0.07830636045207498</v>
       </c>
       <c r="C3">
-        <v>-0.01490134632290463</v>
+        <v>-0.01276389474933446</v>
       </c>
       <c r="D3">
-        <v>0.05208669873118513</v>
+        <v>-0.02191116524176448</v>
       </c>
       <c r="E3">
-        <v>0.09687038970290464</v>
+        <v>0.008191175736250996</v>
       </c>
       <c r="F3">
-        <v>0.3821765840725458</v>
+        <v>-0.04234945857021027</v>
       </c>
       <c r="G3">
-        <v>-0.2177839311168983</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.2544777102048958</v>
+      </c>
+      <c r="H3">
+        <v>0.06906738807695181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.05420956726138031</v>
+        <v>-0.04802132195851705</v>
       </c>
       <c r="C4">
-        <v>-0.0005291328947539338</v>
+        <v>0.003640578891751365</v>
       </c>
       <c r="D4">
-        <v>-0.03675759228871976</v>
+        <v>-0.04175322967949292</v>
       </c>
       <c r="E4">
-        <v>0.07201187265668244</v>
+        <v>-0.01892430399519347</v>
       </c>
       <c r="F4">
-        <v>0.07600181653552066</v>
+        <v>0.05030156131429052</v>
       </c>
       <c r="G4">
-        <v>-0.05329161957382345</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.05599909143953809</v>
+      </c>
+      <c r="H4">
+        <v>0.03514753477082632</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.01393196918317783</v>
+        <v>-0.02550707854730722</v>
       </c>
       <c r="C6">
-        <v>-0.009979605860298949</v>
+        <v>0.004168932067125504</v>
       </c>
       <c r="D6">
-        <v>0.008503350288549363</v>
+        <v>-0.05134377726558811</v>
       </c>
       <c r="E6">
-        <v>0.02214349247531046</v>
+        <v>-0.004480445859185082</v>
       </c>
       <c r="F6">
-        <v>0.01476597574696555</v>
+        <v>0.03165881896625571</v>
       </c>
       <c r="G6">
-        <v>0.004405274210155479</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01821027138449578</v>
+      </c>
+      <c r="H6">
+        <v>0.05344191880760017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02757473382502641</v>
+        <v>-0.02034109782314965</v>
       </c>
       <c r="C7">
-        <v>-0.02403922633147442</v>
+        <v>0.003273991021953981</v>
       </c>
       <c r="D7">
-        <v>0.00777409934839595</v>
+        <v>-0.02500253843992378</v>
       </c>
       <c r="E7">
-        <v>0.04923841389891967</v>
+        <v>-0.03613441060179459</v>
       </c>
       <c r="F7">
-        <v>0.05605773917299075</v>
+        <v>0.009904063126313093</v>
       </c>
       <c r="G7">
-        <v>-0.05812083153761426</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.03464139730925235</v>
+      </c>
+      <c r="H7">
+        <v>0.02477418166448465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01977341119146321</v>
+        <v>-0.006844396520462217</v>
       </c>
       <c r="C8">
-        <v>0.007944565484598879</v>
+        <v>-0.002356615146301404</v>
       </c>
       <c r="D8">
-        <v>-0.01112030907205491</v>
+        <v>-0.01109368102890894</v>
       </c>
       <c r="E8">
-        <v>0.0703496338104261</v>
+        <v>-0.009918018547413223</v>
       </c>
       <c r="F8">
-        <v>0.08806370426124337</v>
+        <v>0.02108357252196992</v>
       </c>
       <c r="G8">
-        <v>-0.07277461885573661</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.05893696424793441</v>
+      </c>
+      <c r="H8">
+        <v>0.01425805728708599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.04613121329403012</v>
+        <v>-0.0399587797781174</v>
       </c>
       <c r="C9">
-        <v>0.01176184060528483</v>
+        <v>-0.0007945654793895295</v>
       </c>
       <c r="D9">
-        <v>-0.0306465712676003</v>
+        <v>-0.03356980454015828</v>
       </c>
       <c r="E9">
-        <v>0.06917922368310007</v>
+        <v>-0.01694162670793087</v>
       </c>
       <c r="F9">
-        <v>0.07148268094116102</v>
+        <v>0.02565686289471488</v>
       </c>
       <c r="G9">
-        <v>-0.04919054219855368</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.06332333178871796</v>
+      </c>
+      <c r="H9">
+        <v>0.03196088785895673</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03799875574943756</v>
+        <v>-0.1000394511080974</v>
       </c>
       <c r="C10">
-        <v>0.007945326688283435</v>
+        <v>-0.0315845001357826</v>
       </c>
       <c r="D10">
-        <v>-0.02553624021945073</v>
+        <v>0.1521156268979799</v>
       </c>
       <c r="E10">
-        <v>-0.1052352791334278</v>
+        <v>0.009970351850340951</v>
       </c>
       <c r="F10">
-        <v>0.07118253826316324</v>
+        <v>-0.04745243067860884</v>
       </c>
       <c r="G10">
-        <v>0.01467838818155311</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02270489636990797</v>
+      </c>
+      <c r="H10">
+        <v>0.0002165637094590082</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03435327940023419</v>
+        <v>-0.02113129416941426</v>
       </c>
       <c r="C11">
-        <v>-0.01540066831809051</v>
+        <v>-0.008205130406039329</v>
       </c>
       <c r="D11">
-        <v>-0.001345581948595357</v>
+        <v>-0.03717890857937853</v>
       </c>
       <c r="E11">
-        <v>0.0388484425981311</v>
+        <v>0.004769888782328032</v>
       </c>
       <c r="F11">
-        <v>0.03344039280447988</v>
+        <v>0.01178824092311152</v>
       </c>
       <c r="G11">
-        <v>-0.01864158101267932</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.03434132603609558</v>
+      </c>
+      <c r="H11">
+        <v>0.03132427421960801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04243499166371613</v>
+        <v>-0.02962375321982237</v>
       </c>
       <c r="C12">
-        <v>-0.003776206473026154</v>
+        <v>-0.006598759692147005</v>
       </c>
       <c r="D12">
-        <v>-0.009495885583410579</v>
+        <v>-0.03824130715912973</v>
       </c>
       <c r="E12">
-        <v>0.04565268269968483</v>
+        <v>-0.006712787378639254</v>
       </c>
       <c r="F12">
-        <v>0.01758222735927042</v>
+        <v>0.01816199279969091</v>
       </c>
       <c r="G12">
-        <v>-0.01342851433417163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.01466184983133931</v>
+      </c>
+      <c r="H12">
+        <v>0.01558655008750695</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.02153348083879082</v>
+        <v>-0.02757243002116839</v>
       </c>
       <c r="C13">
-        <v>-0.03280046513618646</v>
+        <v>0.01302885590930115</v>
       </c>
       <c r="D13">
-        <v>-0.005050375100709762</v>
+        <v>-0.004169279715066712</v>
       </c>
       <c r="E13">
-        <v>0.01985458298510219</v>
+        <v>0.01824176861563112</v>
       </c>
       <c r="F13">
-        <v>0.09036859837173764</v>
+        <v>0.012160748033236</v>
       </c>
       <c r="G13">
-        <v>-0.04196062872733784</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.06748763800485809</v>
+      </c>
+      <c r="H13">
+        <v>0.03498609721992666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01176876352038185</v>
+        <v>-0.01634633803534609</v>
       </c>
       <c r="C14">
-        <v>-0.002224802202804797</v>
+        <v>0.0006735710139990329</v>
       </c>
       <c r="D14">
-        <v>-0.006424999445665442</v>
+        <v>-0.005344230844570965</v>
       </c>
       <c r="E14">
-        <v>0.039343285562832</v>
+        <v>-0.007912018620798626</v>
       </c>
       <c r="F14">
-        <v>0.05465650754026943</v>
+        <v>0.01607766873149968</v>
       </c>
       <c r="G14">
-        <v>-0.06538759544080876</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04743293228812373</v>
+      </c>
+      <c r="H14">
+        <v>-0.01329187007751103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02565968687246209</v>
+        <v>-0.02241340447660514</v>
       </c>
       <c r="C16">
-        <v>-0.01446374286251954</v>
+        <v>-0.008696988544909971</v>
       </c>
       <c r="D16">
-        <v>-0.003492551822891055</v>
+        <v>-0.0334030588482668</v>
       </c>
       <c r="E16">
-        <v>0.03617805952955024</v>
+        <v>-0.0001931283492888541</v>
       </c>
       <c r="F16">
-        <v>0.04040886735778766</v>
+        <v>0.01624792356549213</v>
       </c>
       <c r="G16">
-        <v>-0.02281546211395124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.03181935004583027</v>
+      </c>
+      <c r="H16">
+        <v>0.02473460498919087</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.04202602692738108</v>
+        <v>-0.03396930300324665</v>
       </c>
       <c r="C19">
-        <v>-0.01487189832074457</v>
+        <v>-0.0002455653474010421</v>
       </c>
       <c r="D19">
-        <v>0.0005987611678606277</v>
+        <v>-0.01627209838362111</v>
       </c>
       <c r="E19">
-        <v>0.05269841551764905</v>
+        <v>0.001309742438141608</v>
       </c>
       <c r="F19">
-        <v>0.1034309568821619</v>
+        <v>0.02307290019001054</v>
       </c>
       <c r="G19">
-        <v>-0.05136667460019257</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.07565445812176093</v>
+      </c>
+      <c r="H19">
+        <v>0.04406068077630333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.001293194443431097</v>
+        <v>-0.01013170577001362</v>
       </c>
       <c r="C20">
-        <v>-0.009353316937106138</v>
+        <v>0.006461002328520054</v>
       </c>
       <c r="D20">
-        <v>-0.01441203461112923</v>
+        <v>-0.005319615054889028</v>
       </c>
       <c r="E20">
-        <v>0.04181097586648493</v>
+        <v>6.710283617142639e-05</v>
       </c>
       <c r="F20">
-        <v>0.05488922782449718</v>
+        <v>0.01186611219374848</v>
       </c>
       <c r="G20">
-        <v>-0.07181439191296625</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.0530977334217199</v>
+      </c>
+      <c r="H20">
+        <v>-0.005456159343507593</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0008578477289213302</v>
+        <v>-0.01937973195310111</v>
       </c>
       <c r="C21">
-        <v>0.003102762018207961</v>
+        <v>0.006613984893281955</v>
       </c>
       <c r="D21">
-        <v>0.01183791101827278</v>
+        <v>-0.008925607057797911</v>
       </c>
       <c r="E21">
-        <v>0.04176499057637941</v>
+        <v>-0.01173263393173337</v>
       </c>
       <c r="F21">
-        <v>0.06094232856092617</v>
+        <v>0.006540281629738036</v>
       </c>
       <c r="G21">
-        <v>-0.02854526516143322</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.06542983391299234</v>
+      </c>
+      <c r="H21">
+        <v>0.01118586045465815</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03236835413923322</v>
+        <v>-0.02061934031828462</v>
       </c>
       <c r="C24">
-        <v>-0.01433110090010336</v>
+        <v>-0.003247488102025126</v>
       </c>
       <c r="D24">
-        <v>-0.01021959704903619</v>
+        <v>-0.03368962019799157</v>
       </c>
       <c r="E24">
-        <v>0.02215908591898758</v>
+        <v>-3.685868274418405e-05</v>
       </c>
       <c r="F24">
-        <v>0.03506931029178779</v>
+        <v>0.01053845202831784</v>
       </c>
       <c r="G24">
-        <v>-0.01846065568450988</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.0276642703637048</v>
+      </c>
+      <c r="H24">
+        <v>0.02909399859862521</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03086384146935894</v>
+        <v>-0.02960252847571588</v>
       </c>
       <c r="C25">
-        <v>-0.005621427112464511</v>
+        <v>-0.001076033693038089</v>
       </c>
       <c r="D25">
-        <v>-0.001969155191976023</v>
+        <v>-0.03340112916733065</v>
       </c>
       <c r="E25">
-        <v>0.04213211134182045</v>
+        <v>-0.001684245069609396</v>
       </c>
       <c r="F25">
-        <v>0.03377067450674243</v>
+        <v>0.01723976952688699</v>
       </c>
       <c r="G25">
-        <v>-0.002815318076781182</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.03254854985077504</v>
+      </c>
+      <c r="H25">
+        <v>0.03114450425838658</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02264159813479968</v>
+        <v>-0.02075817053187179</v>
       </c>
       <c r="C26">
-        <v>-0.02681371542858977</v>
+        <v>0.01668306380678453</v>
       </c>
       <c r="D26">
-        <v>0.01792157411421786</v>
+        <v>-0.003133224967241151</v>
       </c>
       <c r="E26">
-        <v>0.03888433178185354</v>
+        <v>0.007453594166551255</v>
       </c>
       <c r="F26">
-        <v>0.05844904121054239</v>
+        <v>0.001678961666553253</v>
       </c>
       <c r="G26">
-        <v>-0.03032489366225113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03797593329083038</v>
+      </c>
+      <c r="H26">
+        <v>0.001578081126334998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.07043958105272302</v>
+        <v>-0.0271981145026382</v>
       </c>
       <c r="C27">
-        <v>-0.01212890112832746</v>
+        <v>-0.01063449069060506</v>
       </c>
       <c r="D27">
-        <v>-0.04964415071615511</v>
+        <v>-0.01785132558564932</v>
       </c>
       <c r="E27">
-        <v>0.05400281253421772</v>
+        <v>-0.005398638470369544</v>
       </c>
       <c r="F27">
-        <v>0.05318278338771776</v>
+        <v>0.02171963503037335</v>
       </c>
       <c r="G27">
-        <v>-0.04718403955308623</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.02687065688305908</v>
+      </c>
+      <c r="H27">
+        <v>-0.0009833374256847482</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05592048574845346</v>
+        <v>-0.1502562907675751</v>
       </c>
       <c r="C28">
-        <v>0.0205600663491714</v>
+        <v>-0.03411928743156338</v>
       </c>
       <c r="D28">
-        <v>-0.04838468318272673</v>
+        <v>0.2238704435426123</v>
       </c>
       <c r="E28">
-        <v>-0.1643410439977419</v>
+        <v>0.00818523861304934</v>
       </c>
       <c r="F28">
-        <v>0.08777026145062938</v>
+        <v>-0.05356603361731231</v>
       </c>
       <c r="G28">
-        <v>-0.01406067341782382</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.008855014525881368</v>
+      </c>
+      <c r="H28">
+        <v>-0.01660154730870849</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02120748470071895</v>
+        <v>-0.02108153285240088</v>
       </c>
       <c r="C29">
-        <v>0.003099169488448651</v>
+        <v>-0.001476609058700933</v>
       </c>
       <c r="D29">
-        <v>-0.01226760126829865</v>
+        <v>-0.008271492717687387</v>
       </c>
       <c r="E29">
-        <v>0.05314663102469103</v>
+        <v>-0.009467745489996664</v>
       </c>
       <c r="F29">
-        <v>0.04321895296149204</v>
+        <v>0.01878997535115222</v>
       </c>
       <c r="G29">
-        <v>-0.05799392685627652</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.0414825322420139</v>
+      </c>
+      <c r="H29">
+        <v>-0.0140871597961379</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.09097777683870487</v>
+        <v>-0.05270541980953456</v>
       </c>
       <c r="C30">
-        <v>-0.04610050492051363</v>
+        <v>0.004298465502115846</v>
       </c>
       <c r="D30">
-        <v>-0.03305915925570244</v>
+        <v>-0.06699301062255641</v>
       </c>
       <c r="E30">
-        <v>0.08352096833764776</v>
+        <v>0.03613773504876012</v>
       </c>
       <c r="F30">
-        <v>0.07702172368012211</v>
+        <v>0.04986684846380959</v>
       </c>
       <c r="G30">
-        <v>-0.03352657912713345</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.07042035396907041</v>
+      </c>
+      <c r="H30">
+        <v>0.04559659795290712</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06379760301402948</v>
+        <v>-0.05473411387032182</v>
       </c>
       <c r="C31">
-        <v>-0.04431158850145146</v>
+        <v>-0.01525630401648493</v>
       </c>
       <c r="D31">
-        <v>0.001538274900009777</v>
+        <v>-0.02902302651032578</v>
       </c>
       <c r="E31">
-        <v>0.04143429088826213</v>
+        <v>0.009422468379444892</v>
       </c>
       <c r="F31">
-        <v>0.03450847725150579</v>
+        <v>0.01543547030466086</v>
       </c>
       <c r="G31">
-        <v>-0.07623655702695525</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.0271265771440752</v>
+      </c>
+      <c r="H31">
+        <v>-0.01143613997299528</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.017979890431778</v>
+        <v>-0.0108366727013697</v>
       </c>
       <c r="C32">
-        <v>-0.0002111233437175711</v>
+        <v>-0.01375617746157805</v>
       </c>
       <c r="D32">
-        <v>-0.01335162335386824</v>
+        <v>-0.003622219877474131</v>
       </c>
       <c r="E32">
-        <v>0.07869655340000815</v>
+        <v>-0.0189371912521376</v>
       </c>
       <c r="F32">
-        <v>0.05495364877232922</v>
+        <v>0.04292006742974104</v>
       </c>
       <c r="G32">
-        <v>-0.04152664035299411</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.05276060788439493</v>
+      </c>
+      <c r="H32">
+        <v>0.04764949480141008</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.05384027134701028</v>
+        <v>-0.03947641751040324</v>
       </c>
       <c r="C33">
-        <v>-0.03319700937525148</v>
+        <v>-0.001560684452401186</v>
       </c>
       <c r="D33">
-        <v>0.02130591103199427</v>
+        <v>-0.03026855870019528</v>
       </c>
       <c r="E33">
-        <v>0.07056741624467297</v>
+        <v>0.02523986884162661</v>
       </c>
       <c r="F33">
-        <v>0.08448083150089147</v>
+        <v>0.002575163164585549</v>
       </c>
       <c r="G33">
-        <v>-0.04735533203549177</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.06195195575917169</v>
+      </c>
+      <c r="H33">
+        <v>0.02092250321543166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03367447378130742</v>
+        <v>-0.02657663175483168</v>
       </c>
       <c r="C34">
-        <v>-0.01340690647259733</v>
+        <v>-0.0171706896387416</v>
       </c>
       <c r="D34">
-        <v>-0.01148338761518022</v>
+        <v>-0.03490716743906346</v>
       </c>
       <c r="E34">
-        <v>0.04653584953815908</v>
+        <v>-0.005635366551135491</v>
       </c>
       <c r="F34">
-        <v>0.04525276637795721</v>
+        <v>0.01796671362677895</v>
       </c>
       <c r="G34">
-        <v>-0.0128969262290493</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02792111737213689</v>
+      </c>
+      <c r="H34">
+        <v>0.02608962282825826</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01342363728266376</v>
+        <v>-0.02154177892617826</v>
       </c>
       <c r="C36">
-        <v>-1.434287957380685e-05</v>
+        <v>0.003345964722264199</v>
       </c>
       <c r="D36">
-        <v>-0.005686055865606105</v>
+        <v>0.0007153103377125214</v>
       </c>
       <c r="E36">
-        <v>0.0289776589830491</v>
+        <v>-0.002253954699277154</v>
       </c>
       <c r="F36">
-        <v>0.0250841981503686</v>
+        <v>0.006713015802188198</v>
       </c>
       <c r="G36">
-        <v>-0.02964884865005101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02247531141009071</v>
+      </c>
+      <c r="H36">
+        <v>-0.002202405080606133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.002016004895832533</v>
+        <v>-0.02168316201945244</v>
       </c>
       <c r="C38">
-        <v>0.01966418959875175</v>
+        <v>-0.01646845772724978</v>
       </c>
       <c r="D38">
-        <v>0.00884109324163831</v>
+        <v>-0.001643462333189256</v>
       </c>
       <c r="E38">
-        <v>-0.002526001291295028</v>
+        <v>-0.005028082385769348</v>
       </c>
       <c r="F38">
-        <v>0.02240880661690601</v>
+        <v>0.008792167662978077</v>
       </c>
       <c r="G38">
-        <v>0.01107459411623197</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02877427333202564</v>
+      </c>
+      <c r="H38">
+        <v>0.02473220106158719</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03955757516811668</v>
+        <v>-0.01936950224918565</v>
       </c>
       <c r="C39">
-        <v>-0.03009125448156371</v>
+        <v>-0.0007678730237408012</v>
       </c>
       <c r="D39">
-        <v>-0.01123541628493822</v>
+        <v>-0.07513533761772595</v>
       </c>
       <c r="E39">
-        <v>0.0519644099048583</v>
+        <v>0.005231771831338522</v>
       </c>
       <c r="F39">
-        <v>0.05194007159646796</v>
+        <v>0.02335816545575898</v>
       </c>
       <c r="G39">
-        <v>-0.01327683953284771</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.05331717854338138</v>
+      </c>
+      <c r="H39">
+        <v>0.05595422690978188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.03105724850178734</v>
+        <v>-0.03390479590151504</v>
       </c>
       <c r="C40">
-        <v>-0.05957017696566785</v>
+        <v>-0.00189640412380399</v>
       </c>
       <c r="D40">
-        <v>-0.01644194099766106</v>
+        <v>-0.01910876803918661</v>
       </c>
       <c r="E40">
-        <v>0.04117700550737401</v>
+        <v>0.02222804933846012</v>
       </c>
       <c r="F40">
-        <v>0.09122888205955976</v>
+        <v>0.02638090120045693</v>
       </c>
       <c r="G40">
-        <v>-0.05139861759061459</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.0477768304346137</v>
+      </c>
+      <c r="H40">
+        <v>0.05251599749837384</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.0006655125199001557</v>
+        <v>-0.01249430988082634</v>
       </c>
       <c r="C41">
-        <v>0.0009524679886636193</v>
+        <v>-0.0004878879715971511</v>
       </c>
       <c r="D41">
-        <v>0.003377264375694775</v>
+        <v>0.01254919898359809</v>
       </c>
       <c r="E41">
-        <v>0.01500362865357799</v>
+        <v>0.0006889485623736782</v>
       </c>
       <c r="F41">
-        <v>0.003864236469532047</v>
+        <v>0.001120056133667778</v>
       </c>
       <c r="G41">
-        <v>-0.05273171239652018</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.008336739495757103</v>
+      </c>
+      <c r="H41">
+        <v>-0.01484015201547414</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3909336326638706</v>
+        <v>-0.1971789993534012</v>
       </c>
       <c r="C42">
-        <v>0.1056594186146366</v>
+        <v>0.07334406730830759</v>
       </c>
       <c r="D42">
-        <v>0.860740488834237</v>
+        <v>-0.384975841608417</v>
       </c>
       <c r="E42">
-        <v>-0.1589920451296656</v>
+        <v>0.1498657935671137</v>
       </c>
       <c r="F42">
-        <v>-0.179753319831023</v>
+        <v>-0.8569529778148699</v>
       </c>
       <c r="G42">
-        <v>-0.04836923724334326</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.1757354920577915</v>
+      </c>
+      <c r="H42">
+        <v>-0.02243690538617579</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.006340681051340529</v>
+        <v>-0.01165056584473436</v>
       </c>
       <c r="C43">
-        <v>-0.003835602454200298</v>
+        <v>0.001528386570254197</v>
       </c>
       <c r="D43">
-        <v>0.0152985190250158</v>
+        <v>0.01516165769523679</v>
       </c>
       <c r="E43">
-        <v>0.01952451961848415</v>
+        <v>0.007600362312943467</v>
       </c>
       <c r="F43">
-        <v>0.02082259259259047</v>
+        <v>-0.009469230964935271</v>
       </c>
       <c r="G43">
-        <v>-0.05023422777750065</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.01631262740664354</v>
+      </c>
+      <c r="H43">
+        <v>-0.009467398672668237</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01904496046141381</v>
+        <v>-0.01407283199814432</v>
       </c>
       <c r="C44">
-        <v>-0.01205623626870678</v>
+        <v>-0.000345532449801711</v>
       </c>
       <c r="D44">
-        <v>0.02531354263165055</v>
+        <v>-0.02508536104273325</v>
       </c>
       <c r="E44">
-        <v>0.08139349932099679</v>
+        <v>0.0009603469208497694</v>
       </c>
       <c r="F44">
-        <v>0.1543493704545488</v>
+        <v>-0.007388578783794253</v>
       </c>
       <c r="G44">
-        <v>-0.1726150253790248</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.08341915784924453</v>
+      </c>
+      <c r="H44">
+        <v>0.02458811293471424</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01990419519505542</v>
+        <v>-0.01925108973448705</v>
       </c>
       <c r="C46">
-        <v>-0.01241295138650556</v>
+        <v>0.003257096703309416</v>
       </c>
       <c r="D46">
-        <v>0.008755418913605258</v>
+        <v>-0.01527464480357963</v>
       </c>
       <c r="E46">
-        <v>0.06514867394521147</v>
+        <v>0.00169488983596644</v>
       </c>
       <c r="F46">
-        <v>0.05376158868515515</v>
+        <v>0.01807746100847655</v>
       </c>
       <c r="G46">
-        <v>-0.06086957517420503</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.05676182466434556</v>
+      </c>
+      <c r="H46">
+        <v>-0.01056035136678564</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09941899627462709</v>
+        <v>-0.07529792178559426</v>
       </c>
       <c r="C47">
-        <v>-0.03011171883746654</v>
+        <v>-0.03073191261696401</v>
       </c>
       <c r="D47">
-        <v>-0.02019251532234931</v>
+        <v>-0.04203533718353072</v>
       </c>
       <c r="E47">
-        <v>0.03995539669887892</v>
+        <v>0.00444150951549047</v>
       </c>
       <c r="F47">
-        <v>-0.0004416997544255705</v>
+        <v>0.02499642098373797</v>
       </c>
       <c r="G47">
-        <v>-0.07992246699279447</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.004755509708197782</v>
+      </c>
+      <c r="H47">
+        <v>-0.03150228760607315</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01674562822054837</v>
+        <v>-0.02273193247833371</v>
       </c>
       <c r="C48">
-        <v>-0.01118583703545023</v>
+        <v>-0.007123090374124522</v>
       </c>
       <c r="D48">
-        <v>0.003672395177495854</v>
+        <v>-0.004644576386801484</v>
       </c>
       <c r="E48">
-        <v>0.03607218285255932</v>
+        <v>0.002832650005544906</v>
       </c>
       <c r="F48">
-        <v>0.04188988907884249</v>
+        <v>0.009758695069475826</v>
       </c>
       <c r="G48">
-        <v>-0.0158710978313375</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02924506098153482</v>
+      </c>
+      <c r="H48">
+        <v>0.00409785440110729</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.09307512378011494</v>
+        <v>-0.07289111200045532</v>
       </c>
       <c r="C50">
-        <v>-0.03895555320672622</v>
+        <v>-0.02771369608534269</v>
       </c>
       <c r="D50">
-        <v>-0.00731255892961233</v>
+        <v>-0.04623654087366771</v>
       </c>
       <c r="E50">
-        <v>0.05988949165084278</v>
+        <v>-0.009318493302680501</v>
       </c>
       <c r="F50">
-        <v>0.03078680279272098</v>
+        <v>0.02255848984382062</v>
       </c>
       <c r="G50">
-        <v>-0.0370592578035302</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.02468834464223462</v>
+      </c>
+      <c r="H50">
+        <v>-0.02128149886845762</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01907763956600385</v>
+        <v>-0.01931377137320337</v>
       </c>
       <c r="C51">
-        <v>-0.01574871542592206</v>
+        <v>0.0009718471154385123</v>
       </c>
       <c r="D51">
-        <v>0.0149233069567276</v>
+        <v>0.006850575280716179</v>
       </c>
       <c r="E51">
-        <v>0.02284825622629856</v>
+        <v>0.006721736313297717</v>
       </c>
       <c r="F51">
-        <v>0.1349285984853702</v>
+        <v>-0.01140516398865048</v>
       </c>
       <c r="G51">
-        <v>-0.06165694456536579</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.07003940407711753</v>
+      </c>
+      <c r="H51">
+        <v>0.03072890922367532</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1030973453929823</v>
+        <v>-0.090580690913076</v>
       </c>
       <c r="C53">
-        <v>-0.04472952267801365</v>
+        <v>-0.0367866518403267</v>
       </c>
       <c r="D53">
-        <v>-0.0247734698752021</v>
+        <v>-0.07869799091153895</v>
       </c>
       <c r="E53">
-        <v>0.05310346376629229</v>
+        <v>0.002243690195354437</v>
       </c>
       <c r="F53">
-        <v>-0.06331066784170121</v>
+        <v>0.05319921570076329</v>
       </c>
       <c r="G53">
-        <v>-0.02475463443212878</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.05058762288173935</v>
+      </c>
+      <c r="H53">
+        <v>-0.0420172144745447</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.01322899626467908</v>
+        <v>-0.02325089567380489</v>
       </c>
       <c r="C54">
-        <v>0.001126260278807328</v>
+        <v>-0.01106676972518555</v>
       </c>
       <c r="D54">
-        <v>-0.01354095599915749</v>
+        <v>0.01574831924917588</v>
       </c>
       <c r="E54">
-        <v>0.03945841217201432</v>
+        <v>-0.006424790322966402</v>
       </c>
       <c r="F54">
-        <v>0.0533574957740526</v>
+        <v>0.00811918114104046</v>
       </c>
       <c r="G54">
-        <v>-0.08217580260722941</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03932287015982303</v>
+      </c>
+      <c r="H54">
+        <v>-0.01269759818207898</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1005847057766131</v>
+        <v>-0.07628414801077242</v>
       </c>
       <c r="C55">
-        <v>-0.009320294164028294</v>
+        <v>-0.0319956664606526</v>
       </c>
       <c r="D55">
-        <v>-0.0260493688371606</v>
+        <v>-0.07634998651416577</v>
       </c>
       <c r="E55">
-        <v>0.05441241465685742</v>
+        <v>-0.008826693318486031</v>
       </c>
       <c r="F55">
-        <v>-0.05369885190453268</v>
+        <v>0.04256947332395968</v>
       </c>
       <c r="G55">
-        <v>-0.0509239074496026</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.02753447942576022</v>
+      </c>
+      <c r="H55">
+        <v>-0.0484736935239086</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1456532509293437</v>
+        <v>-0.1260551396198617</v>
       </c>
       <c r="C56">
-        <v>-0.05139396315814511</v>
+        <v>-0.05730970985274192</v>
       </c>
       <c r="D56">
-        <v>-0.0850014116661553</v>
+        <v>-0.09978111782384756</v>
       </c>
       <c r="E56">
-        <v>0.05602097996710115</v>
+        <v>-0.0005675235110576307</v>
       </c>
       <c r="F56">
-        <v>-0.1395208763466479</v>
+        <v>0.08493366731361149</v>
       </c>
       <c r="G56">
-        <v>0.03247327671437388</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.08685274562938902</v>
+      </c>
+      <c r="H56">
+        <v>-0.03874421783372944</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04196783293716443</v>
+        <v>-0.03943519816552075</v>
       </c>
       <c r="C57">
-        <v>-0.02981260048040534</v>
+        <v>0.00969802766003262</v>
       </c>
       <c r="D57">
-        <v>0.007409278629169058</v>
+        <v>-0.02693427272946465</v>
       </c>
       <c r="E57">
-        <v>0.008738949121787163</v>
+        <v>0.01131949828339258</v>
       </c>
       <c r="F57">
-        <v>0.06377053017385458</v>
+        <v>0.01581607981665582</v>
       </c>
       <c r="G57">
-        <v>-0.04655344615858031</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.05862419328307229</v>
+      </c>
+      <c r="H57">
+        <v>0.01856457875666197</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2002253480411512</v>
+        <v>-0.1418447208302879</v>
       </c>
       <c r="C58">
-        <v>-0.09800317713505934</v>
+        <v>-0.04223191462718137</v>
       </c>
       <c r="D58">
-        <v>0.02914559345136832</v>
+        <v>-0.1375294609150929</v>
       </c>
       <c r="E58">
-        <v>0.2226682805455767</v>
+        <v>0.121515467425995</v>
       </c>
       <c r="F58">
-        <v>0.236224778837591</v>
+        <v>-0.03384402571201033</v>
       </c>
       <c r="G58">
-        <v>-0.01710822935908592</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.730954872352366</v>
+      </c>
+      <c r="H58">
+        <v>-0.4781046851830768</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05496368144890315</v>
+        <v>-0.1561890164146868</v>
       </c>
       <c r="C59">
-        <v>-0.006772994433934969</v>
+        <v>-0.04193129018277191</v>
       </c>
       <c r="D59">
-        <v>-0.06246135768468655</v>
+        <v>0.2206347449084395</v>
       </c>
       <c r="E59">
-        <v>-0.132223524659065</v>
+        <v>0.02674914014001966</v>
       </c>
       <c r="F59">
-        <v>0.09555358612361964</v>
+        <v>-0.03606579098019183</v>
       </c>
       <c r="G59">
-        <v>0.02644455741091649</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.01264155671147418</v>
+      </c>
+      <c r="H59">
+        <v>0.0192970387275236</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1648882099986503</v>
+        <v>-0.1734010777023616</v>
       </c>
       <c r="C60">
-        <v>-0.07471623027135571</v>
+        <v>-0.03887741076039827</v>
       </c>
       <c r="D60">
-        <v>0.008741035752257629</v>
+        <v>-0.02330108011875914</v>
       </c>
       <c r="E60">
-        <v>0.01877049865864077</v>
+        <v>0.0538455485364607</v>
       </c>
       <c r="F60">
-        <v>0.1785324279036056</v>
+        <v>0.03358846267061781</v>
       </c>
       <c r="G60">
-        <v>0.3259805915713461</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.1013036905654039</v>
+      </c>
+      <c r="H60">
+        <v>0.3926140008480467</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02123560724210405</v>
+        <v>-0.02085691977844916</v>
       </c>
       <c r="C61">
-        <v>-0.004834572550342877</v>
+        <v>-0.006060091226133129</v>
       </c>
       <c r="D61">
-        <v>0.0005235320202986583</v>
+        <v>-0.04311410107468187</v>
       </c>
       <c r="E61">
-        <v>0.02674171979069641</v>
+        <v>-0.001588971021831664</v>
       </c>
       <c r="F61">
-        <v>0.02686081507273204</v>
+        <v>0.01823848301873007</v>
       </c>
       <c r="G61">
-        <v>-0.005500494685913427</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.03193177204337158</v>
+      </c>
+      <c r="H61">
+        <v>0.03956431249848161</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.0156976040548241</v>
+        <v>-0.01267698564718306</v>
       </c>
       <c r="C63">
-        <v>-0.009339134449618739</v>
+        <v>0.002140663740193694</v>
       </c>
       <c r="D63">
-        <v>-0.001432234340961312</v>
+        <v>-0.01234692646014829</v>
       </c>
       <c r="E63">
-        <v>0.04515930092500106</v>
+        <v>-0.001881233454662902</v>
       </c>
       <c r="F63">
-        <v>0.001790111077687434</v>
+        <v>0.01577990331355098</v>
       </c>
       <c r="G63">
-        <v>-0.04037924160515159</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01701981200215155</v>
+      </c>
+      <c r="H63">
+        <v>-0.01263201670329396</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03704306548146042</v>
+        <v>-0.04119324350929736</v>
       </c>
       <c r="C64">
-        <v>0.01799263049234964</v>
+        <v>-0.01047782095006035</v>
       </c>
       <c r="D64">
-        <v>-0.01524371003519038</v>
+        <v>-0.04031448304378173</v>
       </c>
       <c r="E64">
-        <v>0.04468326992552069</v>
+        <v>-0.008975298194439162</v>
       </c>
       <c r="F64">
-        <v>0.01755085905119003</v>
+        <v>0.009695248258425054</v>
       </c>
       <c r="G64">
-        <v>-0.05763253639385972</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.01961383859718771</v>
+      </c>
+      <c r="H64">
+        <v>0.02680361899043509</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.01452742688727981</v>
+        <v>-0.02792805091980762</v>
       </c>
       <c r="C65">
-        <v>-0.008805447591916236</v>
+        <v>0.005068873202805386</v>
       </c>
       <c r="D65">
-        <v>0.009267160683703549</v>
+        <v>-0.06001864369321796</v>
       </c>
       <c r="E65">
-        <v>0.0199892936692086</v>
+        <v>-0.006576306414050578</v>
       </c>
       <c r="F65">
-        <v>0.01113246049281199</v>
+        <v>0.03412482323772389</v>
       </c>
       <c r="G65">
-        <v>0.008413356898815842</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.004995045833237738</v>
+      </c>
+      <c r="H65">
+        <v>0.05999530669643968</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04046893681291398</v>
+        <v>-0.02556416702980966</v>
       </c>
       <c r="C66">
-        <v>-0.02498392633440261</v>
+        <v>-0.005231698846516199</v>
       </c>
       <c r="D66">
-        <v>-0.01033042302631065</v>
+        <v>-0.08753063144530993</v>
       </c>
       <c r="E66">
-        <v>0.04393550405560088</v>
+        <v>0.01074919647378703</v>
       </c>
       <c r="F66">
-        <v>0.04823101636744827</v>
+        <v>0.03862270441192348</v>
       </c>
       <c r="G66">
-        <v>-0.001325351049516846</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.04456077381610327</v>
+      </c>
+      <c r="H66">
+        <v>0.06193843355923366</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01634917557393763</v>
+        <v>-0.04347408101823536</v>
       </c>
       <c r="C67">
-        <v>0.01642330461111951</v>
+        <v>-0.02046424129063424</v>
       </c>
       <c r="D67">
-        <v>0.004131849467817706</v>
+        <v>0.002668926296260676</v>
       </c>
       <c r="E67">
-        <v>-0.02376391752766555</v>
+        <v>-0.002596527780327487</v>
       </c>
       <c r="F67">
-        <v>0.02830397844509901</v>
+        <v>0.01300209680638579</v>
       </c>
       <c r="G67">
-        <v>0.01894576530556865</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.01552037541467075</v>
+      </c>
+      <c r="H67">
+        <v>0.03465870837562724</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.07087594190192255</v>
+        <v>-0.1605036300442823</v>
       </c>
       <c r="C68">
-        <v>0.01277543186524868</v>
+        <v>-0.02285000866996605</v>
       </c>
       <c r="D68">
-        <v>-0.07377705588534493</v>
+        <v>0.2168565254035904</v>
       </c>
       <c r="E68">
-        <v>-0.1772291553715686</v>
+        <v>0.02215990547026827</v>
       </c>
       <c r="F68">
-        <v>0.08237638912862072</v>
+        <v>-0.05644000375137817</v>
       </c>
       <c r="G68">
-        <v>0.04165717185811424</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01468681112499243</v>
+      </c>
+      <c r="H68">
+        <v>-0.03795986934626343</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.07255497935118023</v>
+        <v>-0.05812195827908215</v>
       </c>
       <c r="C69">
-        <v>-0.03239905684240237</v>
+        <v>-0.0287440227468518</v>
       </c>
       <c r="D69">
-        <v>-0.02249744807043291</v>
+        <v>-0.03960573654015739</v>
       </c>
       <c r="E69">
-        <v>0.01858623326482833</v>
+        <v>0.004929843074866368</v>
       </c>
       <c r="F69">
-        <v>0.002414681853958595</v>
+        <v>0.02921087706108142</v>
       </c>
       <c r="G69">
-        <v>-0.06866627172081879</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.003180549618057616</v>
+      </c>
+      <c r="H69">
+        <v>-0.01083989194424422</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.08483364228758895</v>
+        <v>-0.1511880170440069</v>
       </c>
       <c r="C71">
-        <v>-0.005400617755804656</v>
+        <v>-0.03010018257764278</v>
       </c>
       <c r="D71">
-        <v>-0.06319805990380241</v>
+        <v>0.1998035328535424</v>
       </c>
       <c r="E71">
-        <v>-0.2056586098766961</v>
+        <v>0.02246364827103107</v>
       </c>
       <c r="F71">
-        <v>0.0911491853556578</v>
+        <v>-0.06535856618991162</v>
       </c>
       <c r="G71">
-        <v>0.004099709840251296</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.009154532194084122</v>
+      </c>
+      <c r="H71">
+        <v>-0.02278645676866356</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1069981711100665</v>
+        <v>-0.08367704424173489</v>
       </c>
       <c r="C72">
-        <v>-0.04242200560167012</v>
+        <v>-0.04072492919184034</v>
       </c>
       <c r="D72">
-        <v>-0.07637561918279331</v>
+        <v>-0.08500853386118828</v>
       </c>
       <c r="E72">
-        <v>0.06779397701727849</v>
+        <v>0.00859469620450371</v>
       </c>
       <c r="F72">
-        <v>0.1116017053398686</v>
+        <v>0.08257493476330352</v>
       </c>
       <c r="G72">
-        <v>0.1078394800499244</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.09169613097705885</v>
+      </c>
+      <c r="H72">
+        <v>0.1649794601236486</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2441584481998148</v>
+        <v>-0.241120141473137</v>
       </c>
       <c r="C73">
-        <v>-0.08095240132426015</v>
+        <v>-0.05131153566053959</v>
       </c>
       <c r="D73">
-        <v>-0.004337514733338214</v>
+        <v>-0.06935512956697838</v>
       </c>
       <c r="E73">
-        <v>-0.06309399461759402</v>
+        <v>0.08005259929604423</v>
       </c>
       <c r="F73">
-        <v>0.3028640998130923</v>
+        <v>0.02961330530131999</v>
       </c>
       <c r="G73">
-        <v>0.4780667042187139</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1349560797820888</v>
+      </c>
+      <c r="H73">
+        <v>0.5208690440631621</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1314760616924972</v>
+        <v>-0.1156310168818296</v>
       </c>
       <c r="C74">
-        <v>-0.03845475566911814</v>
+        <v>-0.05254852958321764</v>
       </c>
       <c r="D74">
-        <v>-0.03782987886687832</v>
+        <v>-0.09951377849665549</v>
       </c>
       <c r="E74">
-        <v>0.02264542811935418</v>
+        <v>0.005027948979897846</v>
       </c>
       <c r="F74">
-        <v>-0.08769331674311581</v>
+        <v>0.06777514388324368</v>
       </c>
       <c r="G74">
-        <v>0.03534345978491143</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.06778567715393991</v>
+      </c>
+      <c r="H74">
+        <v>-0.01857187583149173</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2187479437309852</v>
+        <v>-0.224252742172152</v>
       </c>
       <c r="C75">
-        <v>-0.1041509896938696</v>
+        <v>-0.1032887025271372</v>
       </c>
       <c r="D75">
-        <v>-0.1213680765955029</v>
+        <v>-0.1595544179509285</v>
       </c>
       <c r="E75">
-        <v>0.09017752879560921</v>
+        <v>0.02346924702840677</v>
       </c>
       <c r="F75">
-        <v>-0.1472842227401759</v>
+        <v>0.150551171253519</v>
       </c>
       <c r="G75">
-        <v>-0.03510893741065566</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1347096904143044</v>
+      </c>
+      <c r="H75">
+        <v>-0.09868089900069039</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2697525736832527</v>
+        <v>-0.198535194085795</v>
       </c>
       <c r="C76">
-        <v>-0.05846171840539417</v>
+        <v>-0.09652560208398624</v>
       </c>
       <c r="D76">
-        <v>-0.1603354443548274</v>
+        <v>-0.1537809451285499</v>
       </c>
       <c r="E76">
-        <v>0.05593296986368702</v>
+        <v>-0.0196931922468075</v>
       </c>
       <c r="F76">
-        <v>-0.1826855580173022</v>
+        <v>0.1525646878075515</v>
       </c>
       <c r="G76">
-        <v>-0.04388805385342447</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1463487036037416</v>
+      </c>
+      <c r="H76">
+        <v>-0.110491810673773</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1456848994058919</v>
+        <v>-0.07138562233688513</v>
       </c>
       <c r="C77">
-        <v>-0.03118097025739447</v>
+        <v>-0.01009650554028011</v>
       </c>
       <c r="D77">
-        <v>0.06784301194946236</v>
+        <v>-0.07653674919141477</v>
       </c>
       <c r="E77">
-        <v>0.1172856232391565</v>
+        <v>0.01518718716505585</v>
       </c>
       <c r="F77">
-        <v>0.1905762133121528</v>
+        <v>-0.02849721380974846</v>
       </c>
       <c r="G77">
-        <v>-0.1808449523585108</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.1265165088480948</v>
+      </c>
+      <c r="H77">
+        <v>-0.05832341324599753</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.05714385295754824</v>
+        <v>-0.03651335202391764</v>
       </c>
       <c r="C78">
-        <v>-0.02394396453918337</v>
+        <v>-0.01046086301807474</v>
       </c>
       <c r="D78">
-        <v>0.00162667741044386</v>
+        <v>-0.0639266389778209</v>
       </c>
       <c r="E78">
-        <v>0.1050682121151007</v>
+        <v>0.0004708412439663543</v>
       </c>
       <c r="F78">
-        <v>0.04623552757558083</v>
+        <v>0.0316521597612018</v>
       </c>
       <c r="G78">
-        <v>-0.04864615509981779</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.0572917465730589</v>
+      </c>
+      <c r="H78">
+        <v>0.03524970574614999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.2143614347299949</v>
+        <v>-0.1551290826381972</v>
       </c>
       <c r="C80">
-        <v>0.9361680740039675</v>
+        <v>-0.04823290753572132</v>
       </c>
       <c r="D80">
-        <v>-0.1645461948531153</v>
+        <v>-0.0407623585936361</v>
       </c>
       <c r="E80">
-        <v>0.1720100064767328</v>
+        <v>-0.9622554084653481</v>
       </c>
       <c r="F80">
-        <v>0.01981244491248926</v>
+        <v>-0.1440681636146266</v>
       </c>
       <c r="G80">
-        <v>0.05145746793425749</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.08882885694513007</v>
+      </c>
+      <c r="H80">
+        <v>0.01325778010118336</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1572179400201296</v>
+        <v>-0.1468341547845535</v>
       </c>
       <c r="C81">
-        <v>-0.05427793392186157</v>
+        <v>-0.06688627685550944</v>
       </c>
       <c r="D81">
-        <v>-0.1036364748652271</v>
+        <v>-0.1000885011454736</v>
       </c>
       <c r="E81">
-        <v>0.04591586135872137</v>
+        <v>-0.002882562633132961</v>
       </c>
       <c r="F81">
-        <v>-0.1482480622152589</v>
+        <v>0.09651722752600289</v>
       </c>
       <c r="G81">
-        <v>0.01622490269987013</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.09205604493713601</v>
+      </c>
+      <c r="H81">
+        <v>-0.07416076118022473</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.05252157077576989</v>
+        <v>-0.0348780007654287</v>
       </c>
       <c r="C83">
-        <v>-0.03410737436922041</v>
+        <v>-0.006719577522313648</v>
       </c>
       <c r="D83">
-        <v>0.02895360402918292</v>
+        <v>-0.02489051211778719</v>
       </c>
       <c r="E83">
-        <v>0.03238264548860147</v>
+        <v>0.01415831276511571</v>
       </c>
       <c r="F83">
-        <v>0.0575499285143937</v>
+        <v>0.00573830279386655</v>
       </c>
       <c r="G83">
-        <v>-0.04940328027872459</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.06039928582723175</v>
+      </c>
+      <c r="H83">
+        <v>0.02049570133102116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2394983465018157</v>
+        <v>-0.2113528965071168</v>
       </c>
       <c r="C85">
-        <v>-0.08275773430850183</v>
+        <v>-0.08575333309587761</v>
       </c>
       <c r="D85">
-        <v>-0.1251874360511304</v>
+        <v>-0.161326771785942</v>
       </c>
       <c r="E85">
-        <v>0.06643021220514704</v>
+        <v>0.01594413083709139</v>
       </c>
       <c r="F85">
-        <v>-0.1719637376971695</v>
+        <v>0.1336429823137238</v>
       </c>
       <c r="G85">
-        <v>-0.06215185592832513</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1508456932685056</v>
+      </c>
+      <c r="H85">
+        <v>-0.07174257996962918</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.0003510965888378667</v>
+        <v>-0.01855402850166795</v>
       </c>
       <c r="C86">
-        <v>0.0114801479148348</v>
+        <v>0.0002152437041583995</v>
       </c>
       <c r="D86">
-        <v>0.01844798300604908</v>
+        <v>-0.003492667296155656</v>
       </c>
       <c r="E86">
-        <v>0.04806040071031853</v>
+        <v>0.01198602610816645</v>
       </c>
       <c r="F86">
-        <v>0.06663073034718431</v>
+        <v>-0.009857082249774754</v>
       </c>
       <c r="G86">
-        <v>-0.02837768466622278</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.0798815417732326</v>
+      </c>
+      <c r="H86">
+        <v>0.04722031154069047</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03579247174505153</v>
+        <v>-0.02860534526738332</v>
       </c>
       <c r="C87">
-        <v>-0.007616968198360275</v>
+        <v>-0.003242563536369401</v>
       </c>
       <c r="D87">
-        <v>0.001100895176711441</v>
+        <v>-0.03171163119107411</v>
       </c>
       <c r="E87">
-        <v>0.02894622149124977</v>
+        <v>0.003270458281711478</v>
       </c>
       <c r="F87">
-        <v>0.09016612584668936</v>
+        <v>0.0115137975190751</v>
       </c>
       <c r="G87">
-        <v>-0.01729032853506363</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.09096997810105488</v>
+      </c>
+      <c r="H87">
+        <v>0.03992062239223907</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.0123827192029591</v>
+        <v>-0.03880695032798944</v>
       </c>
       <c r="C88">
-        <v>0.01995555875488944</v>
+        <v>0.009971808418312937</v>
       </c>
       <c r="D88">
-        <v>-0.01892389885313274</v>
+        <v>-0.001545439630520989</v>
       </c>
       <c r="E88">
-        <v>-0.002334519699630124</v>
+        <v>-0.00947422260220517</v>
       </c>
       <c r="F88">
-        <v>0.03053381781876132</v>
+        <v>0.01268995914626835</v>
       </c>
       <c r="G88">
-        <v>-0.06928117728884967</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.00550544468651931</v>
+      </c>
+      <c r="H88">
+        <v>0.01146804715675056</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.09640680916594158</v>
+        <v>-0.243234274971674</v>
       </c>
       <c r="C89">
-        <v>-0.004880680455407795</v>
+        <v>-0.04355249870481664</v>
       </c>
       <c r="D89">
-        <v>-0.07797891365490682</v>
+        <v>0.3395653617721496</v>
       </c>
       <c r="E89">
-        <v>-0.2673311279013605</v>
+        <v>0.05435328395052778</v>
       </c>
       <c r="F89">
-        <v>0.1466258685334749</v>
+        <v>-0.07315626806156521</v>
       </c>
       <c r="G89">
-        <v>-0.05887787733971522</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.0009677199935637526</v>
+      </c>
+      <c r="H89">
+        <v>-0.03717098305134713</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.09746195482957511</v>
+        <v>-0.1994771275042073</v>
       </c>
       <c r="C90">
-        <v>0.04010036334303232</v>
+        <v>-0.03710731829561007</v>
       </c>
       <c r="D90">
-        <v>-0.09720026533006706</v>
+        <v>0.3020344585264408</v>
       </c>
       <c r="E90">
-        <v>-0.3042724191266635</v>
+        <v>0.03165961196317227</v>
       </c>
       <c r="F90">
-        <v>0.1168241885397808</v>
+        <v>-0.08510993885737052</v>
       </c>
       <c r="G90">
-        <v>-0.02297168636339417</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.04388726967642934</v>
+      </c>
+      <c r="H90">
+        <v>-0.05236419715788485</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2913748648504307</v>
+        <v>-0.2321421298416598</v>
       </c>
       <c r="C91">
-        <v>-0.09903952658176667</v>
+        <v>-0.1052984093403889</v>
       </c>
       <c r="D91">
-        <v>-0.1200241332883946</v>
+        <v>-0.154517252367745</v>
       </c>
       <c r="E91">
-        <v>0.03252416418171906</v>
+        <v>0.01493766266623608</v>
       </c>
       <c r="F91">
-        <v>-0.2371943079235799</v>
+        <v>0.1455627786181737</v>
       </c>
       <c r="G91">
-        <v>0.001399826139254837</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.1783880826162845</v>
+      </c>
+      <c r="H91">
+        <v>-0.1370706859412398</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1658323715150366</v>
+        <v>-0.2453277641760158</v>
       </c>
       <c r="C92">
-        <v>0.03285769371860512</v>
+        <v>-0.09924825377653967</v>
       </c>
       <c r="D92">
-        <v>-0.1614306707053018</v>
+        <v>0.2374499468369006</v>
       </c>
       <c r="E92">
-        <v>-0.4626254619642971</v>
+        <v>0.01550364895634928</v>
       </c>
       <c r="F92">
-        <v>0.0133304762030379</v>
+        <v>-0.04667667135320409</v>
       </c>
       <c r="G92">
-        <v>-0.4856893550350296</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.02642176663064834</v>
+      </c>
+      <c r="H92">
+        <v>-0.1541128741077233</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.09797945196449276</v>
+        <v>-0.2236171716144478</v>
       </c>
       <c r="C93">
-        <v>0.03444718611901121</v>
+        <v>-0.0492092130781214</v>
       </c>
       <c r="D93">
-        <v>-0.1039517762166484</v>
+        <v>0.3285958409342469</v>
       </c>
       <c r="E93">
-        <v>-0.4200419606935467</v>
+        <v>0.04531220824928561</v>
       </c>
       <c r="F93">
-        <v>0.08096718759035752</v>
+        <v>-0.106088534238314</v>
       </c>
       <c r="G93">
-        <v>0.04654133558438189</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.0574105507811388</v>
+      </c>
+      <c r="H93">
+        <v>0.003871361971017848</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2727435504735462</v>
+        <v>-0.2527265282791726</v>
       </c>
       <c r="C94">
-        <v>-0.1073183365649875</v>
+        <v>-0.09473501193308928</v>
       </c>
       <c r="D94">
-        <v>-0.2032483901431538</v>
+        <v>-0.1364362754157148</v>
       </c>
       <c r="E94">
-        <v>0.04088900970771426</v>
+        <v>0.03153421466524042</v>
       </c>
       <c r="F94">
-        <v>-0.261208916898751</v>
+        <v>0.1843661175189691</v>
       </c>
       <c r="G94">
-        <v>0.06603633674879482</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1810818592365699</v>
+      </c>
+      <c r="H94">
+        <v>-0.1454533786350736</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.07434749432728123</v>
+        <v>-0.05568803480033008</v>
       </c>
       <c r="C95">
-        <v>-0.06080283444925842</v>
+        <v>-0.02980390537764838</v>
       </c>
       <c r="D95">
-        <v>0.04303851334446374</v>
+        <v>-0.09579845056434609</v>
       </c>
       <c r="E95">
-        <v>0.1153567613142147</v>
+        <v>0.07644125238466663</v>
       </c>
       <c r="F95">
-        <v>0.01576677090001813</v>
+        <v>0.00523151701251142</v>
       </c>
       <c r="G95">
-        <v>-0.1837006560943521</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.06320050168558251</v>
+      </c>
+      <c r="H95">
+        <v>0.01331172245175456</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1834783060959326</v>
+        <v>-0.182443450181377</v>
       </c>
       <c r="C98">
-        <v>-0.0490357174538586</v>
+        <v>-0.07159940088999812</v>
       </c>
       <c r="D98">
-        <v>0.003596450785103468</v>
+        <v>-0.03976675229808948</v>
       </c>
       <c r="E98">
-        <v>-0.06805722350487617</v>
+        <v>0.05275350912507957</v>
       </c>
       <c r="F98">
-        <v>0.1431254732406951</v>
+        <v>0.00272964338402602</v>
       </c>
       <c r="G98">
-        <v>0.3444052018730178</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.1209009192766749</v>
+      </c>
+      <c r="H98">
+        <v>0.3819257385897081</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.004957806240464689</v>
+        <v>-0.01413347727172478</v>
       </c>
       <c r="C101">
-        <v>-0.006654969995968723</v>
+        <v>0.0008048891283737845</v>
       </c>
       <c r="D101">
-        <v>-0.003459306373719634</v>
+        <v>-0.008869375114183243</v>
       </c>
       <c r="E101">
-        <v>0.1182383858189662</v>
+        <v>-0.004314374686203671</v>
       </c>
       <c r="F101">
-        <v>0.1280678454896614</v>
+        <v>0.02105718808070221</v>
       </c>
       <c r="G101">
-        <v>-0.1233986598228893</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1079412213933975</v>
+      </c>
+      <c r="H101">
+        <v>-0.05761292960479887</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1004529773357014</v>
+        <v>-0.1024019951552763</v>
       </c>
       <c r="C102">
-        <v>-0.03237140188409737</v>
+        <v>-0.03400950728603552</v>
       </c>
       <c r="D102">
-        <v>-0.04055694845372517</v>
+        <v>-0.07863849162092983</v>
       </c>
       <c r="E102">
-        <v>0.05877410847110757</v>
+        <v>0.0004697923883857633</v>
       </c>
       <c r="F102">
-        <v>-0.1271112875928028</v>
+        <v>0.06559618071726458</v>
       </c>
       <c r="G102">
-        <v>-0.04152889854267473</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.08525773105833204</v>
+      </c>
+      <c r="H102">
+        <v>-0.05972816009285106</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.02593435048489109</v>
+        <v>-0.01960990957410142</v>
       </c>
       <c r="C103">
-        <v>-0.006196427213111208</v>
+        <v>-0.007678385819741342</v>
       </c>
       <c r="D103">
-        <v>-0.01517541501903222</v>
+        <v>-0.01813602980209415</v>
       </c>
       <c r="E103">
-        <v>0.01795318912807704</v>
+        <v>-0.006254026964454039</v>
       </c>
       <c r="F103">
-        <v>-0.0212692820850803</v>
+        <v>0.0178127376297263</v>
       </c>
       <c r="G103">
-        <v>-0.03063241682166585</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.002889989747003971</v>
+      </c>
+      <c r="H103">
+        <v>-0.01051996556606583</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.2802349044661758</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9434592046755268</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.002274745615170427</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02519934100216133</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1430925788543095</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.02425078795084759</v>
+      </c>
+      <c r="H104">
+        <v>-0.03112217081242443</v>
       </c>
     </row>
   </sheetData>
